--- a/Ontwerp/Burndownchar bas.xlsx
+++ b/Ontwerp/Burndownchar bas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63603A9-B759-4EF8-B004-57FDAF71F89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41EE345-38F0-4603-9244-F745035D6CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -642,19 +642,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2163,8 +2163,8 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
+      <c r="F12" s="2">
+        <v>2</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2213,10 +2213,10 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2286,10 +2286,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="22"/>
     </row>
@@ -2303,7 +2303,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2379,23 +2381,23 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Ontwerp/Burndownchar bas.xlsx
+++ b/Ontwerp/Burndownchar bas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41EE345-38F0-4603-9244-F745035D6CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62005B45-B7D9-418B-B205-4734F60CC669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -648,13 +648,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,7 +2183,9 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="22"/>
     </row>
@@ -2217,8 +2219,8 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
+      <c r="G15" s="2">
+        <v>2</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
@@ -2270,7 +2272,9 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2357,7 +2361,9 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6">
+        <v>2</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="24" t="s">
         <v>19</v>
@@ -2389,15 +2395,15 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2446,6 +2452,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2694,16 +2709,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2720,12 +2734,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Ontwerp/Burndownchar bas.xlsx
+++ b/Ontwerp/Burndownchar bas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62005B45-B7D9-418B-B205-4734F60CC669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE53EB47-461A-42CC-BFCF-0B72C8D0C8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Taak</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Query maken</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Usecase diagram</t>
@@ -651,10 +648,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2150,12 +2147,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2172,7 +2171,7 @@
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2191,7 +2190,7 @@
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -2208,7 +2207,7 @@
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -2227,7 +2226,7 @@
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -2236,15 +2235,15 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -2256,14 +2255,12 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -2275,14 +2272,12 @@
       <c r="G18" s="2">
         <v>2</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2299,7 +2294,7 @@
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2310,15 +2305,13 @@
       <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
@@ -2329,13 +2322,11 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -2345,14 +2336,14 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -2365,9 +2356,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -2399,11 +2388,11 @@
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2452,15 +2441,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2709,15 +2689,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2734,4 +2715,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>